--- a/docs/TOCHelper-KingsFieldMappings.xlsx
+++ b/docs/TOCHelper-KingsFieldMappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping from Word Doc" sheetId="1" state="visible" r:id="rId2"/>
@@ -16,14 +16,16 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Helper Fields'!$A$3:$E$47</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Helper Fields'!$A$3:$E$58</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Helper Fields'!$A$3:$E$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Helper Fields'!$A$3:$E$47</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Helper Fields'!$A$3:$E$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Helper Fields'!$A$3:$E$58</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="359">
   <si>
     <t>KEY</t>
   </si>
@@ -175,31 +177,31 @@
     <t>GP</t>
   </si>
   <si>
-    <t>  Dr. A WARSOP</t>
+    <t>Dr. A WARSOP</t>
   </si>
   <si>
     <t>usualGPOrgName</t>
   </si>
   <si>
-    <t>  The Jenner Practice</t>
+    <t>The Jenner Practice</t>
   </si>
   <si>
     <t>usualGPAddress['AddressLine']</t>
   </si>
   <si>
-    <t>  Jenner Health Centre</t>
-  </si>
-  <si>
-    <t>  201 Stanstead Road, Forest Hill</t>
-  </si>
-  <si>
-    <t>  London</t>
+    <t>Jenner Health Centre</t>
+  </si>
+  <si>
+    <t>201 Stanstead Road, Forest Hill</t>
+  </si>
+  <si>
+    <t>London</t>
   </si>
   <si>
     <t>usualGPAddress['Postcode']</t>
   </si>
   <si>
-    <t>  SE23 1HU"</t>
+    <t>SE23 1HU"</t>
   </si>
   <si>
     <t>Date of Discharge</t>
@@ -328,7 +330,7 @@
     <t>allergens": [</t>
   </si>
   <si>
-    <t>    Allergen</t>
+    <t>Allergen</t>
   </si>
   <si>
     <t>allergies</t>
@@ -337,10 +339,7 @@
     <t>Peniciilin</t>
   </si>
   <si>
-    <t>    Reaction</t>
-  </si>
-  <si>
-    <t>    Comments</t>
+    <t>Reaction</t>
   </si>
   <si>
     <t>Previously listed as an adverse reaction but co¬amoxiclav given with no adverse reaction."</t>
@@ -349,10 +348,10 @@
     <t>dischargeMedication": [</t>
   </si>
   <si>
-    <t>    {</t>
-  </si>
-  <si>
-    <t>    Medication</t>
+    <t>{</t>
+  </si>
+  <si>
+    <t>Medication</t>
   </si>
   <si>
     <t>medications</t>
@@ -361,25 +360,25 @@
     <t>Quetiapine Tablet, 12.5mg, Oral, TWICE a day, . . New for agitation in dementia - GP to continue to monitor for risk/benefit.</t>
   </si>
   <si>
-    <t>    Status</t>
+    <t>Status</t>
   </si>
   <si>
     <t>New to continue,</t>
   </si>
   <si>
-    <t>    Supply</t>
+    <t>Supply</t>
   </si>
   <si>
     <t>DFD supply on ward,</t>
   </si>
   <si>
-    <t>    Pharmacy</t>
+    <t>Pharmacy</t>
   </si>
   <si>
     <t>EDITED"</t>
   </si>
   <si>
-    <t>    },</t>
+    <t>},</t>
   </si>
   <si>
     <t>Risperidone Tablet, , , , . . Initiated in community but daughter reports increased confusion</t>
@@ -388,10 +387,10 @@
     <t>Regular stopped on admission, Stopped</t>
   </si>
   <si>
-    <t>    }</t>
-  </si>
-  <si>
-    <t>  ],</t>
+    <t>}</t>
+  </si>
+  <si>
+    <t>],</t>
   </si>
   <si>
     <t>Prescriber</t>
@@ -836,6 +835,12 @@
   </si>
   <si>
     <t>MedicationsAndMedicalDevicesSection</t>
+  </si>
+  <si>
+    <t>medicationsPharmacistScreeningAuthorOrgName</t>
+  </si>
+  <si>
+    <t>medicationsPharmacistScreeningAuthorODSCode</t>
   </si>
   <si>
     <t>ParticipationInResearchSection</t>
@@ -1244,7 +1249,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="2" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1274,8 +1279,8 @@
   </sheetPr>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1347,6 +1352,7 @@
       <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="D5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
@@ -1355,6 +1361,7 @@
       <c r="C6" s="6" t="s">
         <v>13</v>
       </c>
+      <c r="D6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -1888,118 +1895,118 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="C55" s="0" t="s">
         <v>102</v>
       </c>
       <c r="D55" s="0"/>
       <c r="E55" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="D58" s="0"/>
       <c r="E58" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D59" s="0"/>
       <c r="E59" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D60" s="0"/>
       <c r="E60" s="0" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D61" s="0"/>
       <c r="E61" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D62" s="0"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D63" s="0"/>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>109</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>110</v>
       </c>
       <c r="D64" s="0"/>
       <c r="E64" s="0" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" s="0"/>
       <c r="E65" s="0" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="0"/>
       <c r="E66" s="0" t="s">
@@ -2008,34 +2015,34 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D67" s="0"/>
       <c r="E67" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D69" s="0"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E70" s="0" t="s">
         <v>37</v>
@@ -2043,7 +2050,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D71" s="0"/>
       <c r="E71" s="0" t="n">
@@ -2052,40 +2059,40 @@
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="0" t="s">
         <v>128</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C74" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>93</v>
@@ -2096,13 +2103,13 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -2121,10 +2128,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2140,35 +2147,35 @@
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
@@ -2180,7 +2187,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G4" s="0" t="str">
         <f aca="false">"private "&amp;E4&amp;" "&amp;B4&amp;";"</f>
@@ -2189,7 +2196,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>7</v>
@@ -2201,7 +2208,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G5" s="0" t="str">
         <f aca="false">"private "&amp;E5&amp;" "&amp;B5&amp;";"</f>
@@ -2210,16 +2217,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>147</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>148</v>
       </c>
       <c r="G6" s="0" t="str">
         <f aca="false">"private "&amp;E6&amp;" "&amp;B6&amp;";"</f>
@@ -2228,16 +2235,16 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G7" s="0" t="str">
         <f aca="false">"private "&amp;E7&amp;" "&amp;B7&amp;";"</f>
@@ -2246,16 +2253,16 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>150</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>151</v>
       </c>
       <c r="G8" s="0" t="str">
         <f aca="false">"private "&amp;E8&amp;" "&amp;B8&amp;";"</f>
@@ -2264,19 +2271,19 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>153</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>154</v>
       </c>
       <c r="G9" s="0" t="str">
         <f aca="false">"private "&amp;E9&amp;" "&amp;B9&amp;";"</f>
@@ -2285,7 +2292,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>39</v>
@@ -2297,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G10" s="0" t="str">
         <f aca="false">"private "&amp;E10&amp;" "&amp;B10&amp;";"</f>
@@ -2306,7 +2313,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>25</v>
@@ -2318,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G11" s="0" t="str">
         <f aca="false">"private "&amp;E11&amp;" "&amp;B11&amp;";"</f>
@@ -2327,7 +2334,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>27</v>
@@ -2339,10 +2346,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>155</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>156</v>
       </c>
       <c r="G12" s="0" t="str">
         <f aca="false">"private "&amp;E12&amp;" "&amp;B12&amp;";"</f>
@@ -2351,19 +2358,19 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>157</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>158</v>
       </c>
       <c r="G13" s="0" t="str">
         <f aca="false">"private "&amp;E13&amp;" "&amp;B13&amp;";"</f>
@@ -2372,19 +2379,19 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B14" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>159</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>160</v>
       </c>
       <c r="G14" s="0" t="str">
         <f aca="false">"private "&amp;E14&amp;" "&amp;B14&amp;";"</f>
@@ -2393,16 +2400,16 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G15" s="0" t="str">
         <f aca="false">"private "&amp;E15&amp;" "&amp;B15&amp;";"</f>
@@ -2411,16 +2418,16 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G16" s="0" t="str">
         <f aca="false">"private "&amp;E16&amp;" "&amp;B16&amp;";"</f>
@@ -2429,7 +2436,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>51</v>
@@ -2441,7 +2448,7 @@
         <v>5</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="0" t="str">
         <f aca="false">"private "&amp;E17&amp;" "&amp;B17&amp;";"</f>
@@ -2450,22 +2457,22 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="0" t="s">
         <v>163</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>164</v>
       </c>
       <c r="G18" s="0" t="str">
         <f aca="false">"private "&amp;E18&amp;" "&amp;B18&amp;";"</f>
@@ -2474,16 +2481,16 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G19" s="0" t="str">
         <f aca="false">"private "&amp;E19&amp;" "&amp;B19&amp;";"</f>
@@ -2492,16 +2499,16 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G20" s="0" t="str">
         <f aca="false">"private "&amp;E20&amp;" "&amp;B20&amp;";"</f>
@@ -2510,16 +2517,16 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G21" s="0" t="str">
         <f aca="false">"private "&amp;E21&amp;" "&amp;B21&amp;";"</f>
@@ -2528,7 +2535,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>18</v>
@@ -2537,7 +2544,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G22" s="0" t="str">
         <f aca="false">"private "&amp;E22&amp;" "&amp;B22&amp;";"</f>
@@ -2546,7 +2553,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>20</v>
@@ -2555,21 +2562,21 @@
         <v>5</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B24" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="D24" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G24" s="0" t="str">
         <f aca="false">"private "&amp;E24&amp;" "&amp;B24&amp;";"</f>
@@ -2578,16 +2585,16 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="0" t="s">
-        <v>171</v>
-      </c>
       <c r="D25" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G25" s="0" t="str">
         <f aca="false">"private "&amp;E25&amp;" "&amp;B25&amp;";"</f>
@@ -2596,19 +2603,19 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>172</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>173</v>
       </c>
       <c r="G26" s="0" t="str">
         <f aca="false">"private "&amp;E26&amp;" "&amp;B26&amp;";"</f>
@@ -2617,19 +2624,19 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F27" s="0" t="s">
         <v>174</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" s="0" t="s">
-        <v>175</v>
       </c>
       <c r="G27" s="0" t="str">
         <f aca="false">"private "&amp;E27&amp;" "&amp;B27&amp;";"</f>
@@ -2638,19 +2645,19 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F28" s="0" t="s">
         <v>176</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F28" s="0" t="s">
-        <v>177</v>
       </c>
       <c r="G28" s="0" t="str">
         <f aca="false">"private "&amp;E28&amp;" "&amp;B28&amp;";"</f>
@@ -2659,19 +2666,19 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>178</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>179</v>
       </c>
       <c r="G29" s="0" t="str">
         <f aca="false">"private "&amp;E29&amp;" "&amp;B29&amp;";"</f>
@@ -2680,19 +2687,19 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G30" s="0" t="str">
         <f aca="false">"private "&amp;E30&amp;" "&amp;B30&amp;";"</f>
@@ -2701,16 +2708,16 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B31" s="0" t="s">
-        <v>182</v>
-      </c>
       <c r="D31" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G31" s="0" t="str">
         <f aca="false">"private "&amp;E31&amp;" "&amp;B31&amp;";"</f>
@@ -2719,10 +2726,10 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>5</v>
@@ -2731,7 +2738,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G32" s="0" t="str">
         <f aca="false">"private "&amp;E32&amp;" "&amp;B32&amp;";"</f>
@@ -2740,22 +2747,22 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>185</v>
-      </c>
       <c r="D33" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G33" s="0" t="str">
         <f aca="false">"private "&amp;E33&amp;" "&amp;B33&amp;";"</f>
@@ -2764,10 +2771,10 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C34" s="0" t="s">
         <v>5</v>
@@ -2776,7 +2783,7 @@
         <v>5</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" s="0" t="str">
         <f aca="false">"private "&amp;E34&amp;" "&amp;B34&amp;";"</f>
@@ -2785,13 +2792,13 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B35" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="B35" s="0" t="s">
-        <v>188</v>
-      </c>
       <c r="E35" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G35" s="0" t="str">
         <f aca="false">"private "&amp;E35&amp;" "&amp;B35&amp;";"</f>
@@ -2800,16 +2807,16 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B36" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="0" t="s">
         <v>189</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>190</v>
       </c>
       <c r="G36" s="0" t="str">
         <f aca="false">"private "&amp;E36&amp;" "&amp;B36&amp;";"</f>
@@ -2818,16 +2825,16 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G37" s="0" t="str">
         <f aca="false">"private "&amp;E37&amp;" "&amp;B37&amp;";"</f>
@@ -2836,16 +2843,16 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G38" s="0" t="str">
         <f aca="false">"private "&amp;E38&amp;" "&amp;B38&amp;";"</f>
@@ -2854,19 +2861,19 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="D39" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G39" s="0" t="str">
         <f aca="false">"private "&amp;E39&amp;" "&amp;B39&amp;";"</f>
@@ -2875,19 +2882,19 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G40" s="0" t="str">
         <f aca="false">"private "&amp;E40&amp;" "&amp;B40&amp;";"</f>
@@ -2896,19 +2903,19 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G41" s="0" t="str">
         <f aca="false">"private "&amp;E41&amp;" "&amp;B41&amp;";"</f>
@@ -2917,19 +2924,19 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G42" s="0" t="str">
         <f aca="false">"private "&amp;E42&amp;" "&amp;B42&amp;";"</f>
@@ -2938,16 +2945,16 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43" s="0" t="str">
         <f aca="false">"private "&amp;E43&amp;" "&amp;B43&amp;";"</f>
@@ -2956,7 +2963,7 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>12</v>
@@ -2968,10 +2975,10 @@
         <v>5</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G44" s="0" t="str">
         <f aca="false">"private "&amp;E44&amp;" "&amp;B44&amp;";"</f>
@@ -2980,7 +2987,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>13</v>
@@ -2992,7 +2999,7 @@
         <v>5</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G45" s="0" t="str">
         <f aca="false">"private "&amp;E45&amp;" "&amp;B45&amp;";"</f>
@@ -3001,22 +3008,22 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="F46" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="G46" s="0" t="str">
         <f aca="false">"private "&amp;E46&amp;" "&amp;B46&amp;";"</f>
@@ -3025,19 +3032,19 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B47" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B47" s="0" t="s">
-        <v>205</v>
-      </c>
       <c r="D47" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F47" s="0" t="s">
         <v>202</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>203</v>
       </c>
       <c r="G47" s="0" t="str">
         <f aca="false">"private "&amp;E47&amp;" "&amp;B47&amp;";"</f>
@@ -3046,11 +3053,11 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="B48" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B48" s="0" t="s">
-        <v>207</v>
-      </c>
       <c r="C48" s="0" t="s">
         <v>5</v>
       </c>
@@ -3058,7 +3065,7 @@
         <v>5</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G48" s="0" t="str">
         <f aca="false">"private "&amp;E48&amp;" "&amp;B48&amp;";"</f>
@@ -3067,16 +3074,16 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G49" s="0" t="str">
         <f aca="false">"private "&amp;E49&amp;" "&amp;B49&amp;";"</f>
@@ -3085,16 +3092,16 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G50" s="0" t="str">
         <f aca="false">"private "&amp;E50&amp;" "&amp;B50&amp;";"</f>
@@ -3103,16 +3110,16 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G51" s="0" t="str">
         <f aca="false">"private "&amp;E51&amp;" "&amp;B51&amp;";"</f>
@@ -3121,10 +3128,10 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C52" s="0" t="s">
         <v>5</v>
@@ -3133,10 +3140,10 @@
         <v>5</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G52" s="0" t="str">
         <f aca="false">"private "&amp;E52&amp;" "&amp;B52&amp;";"</f>
@@ -3145,10 +3152,10 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" s="0" t="s">
         <v>5</v>
@@ -3157,7 +3164,7 @@
         <v>5</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G53" s="0" t="str">
         <f aca="false">"private "&amp;E53&amp;" "&amp;B53&amp;";"</f>
@@ -3166,19 +3173,19 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="0" t="s">
-        <v>214</v>
-      </c>
       <c r="D54" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G54" s="0" t="str">
         <f aca="false">"private "&amp;E54&amp;" "&amp;B54&amp;";"</f>
@@ -3187,19 +3194,19 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G55" s="0" t="str">
         <f aca="false">"private "&amp;E55&amp;" "&amp;B55&amp;";"</f>
@@ -3208,19 +3215,19 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G56" s="0" t="str">
         <f aca="false">"private "&amp;E56&amp;" "&amp;B56&amp;";"</f>
@@ -3229,19 +3236,19 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G57" s="0" t="str">
         <f aca="false">"private "&amp;E57&amp;" "&amp;B57&amp;";"</f>
@@ -3250,16 +3257,16 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D58" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G58" s="0" t="str">
         <f aca="false">"private "&amp;E58&amp;" "&amp;B58&amp;";"</f>
@@ -3268,16 +3275,16 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D59" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G59" s="0" t="str">
         <f aca="false">"private "&amp;E59&amp;" "&amp;B59&amp;";"</f>
@@ -3286,16 +3293,16 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="D60" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" s="9" t="s">
         <v>221</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>222</v>
       </c>
       <c r="G60" s="0" t="str">
         <f aca="false">"private "&amp;E60&amp;" "&amp;B60&amp;";"</f>
@@ -3304,16 +3311,16 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>224</v>
-      </c>
       <c r="D61" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G61" s="0" t="str">
         <f aca="false">"private "&amp;E61&amp;" "&amp;B61&amp;";"</f>
@@ -3322,19 +3329,19 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G62" s="0" t="str">
         <f aca="false">"private "&amp;E62&amp;" "&amp;B62&amp;";"</f>
@@ -3343,19 +3350,19 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G63" s="0" t="str">
         <f aca="false">"private "&amp;E63&amp;" "&amp;B63&amp;";"</f>
@@ -3364,16 +3371,16 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G64" s="0" t="str">
         <f aca="false">"private "&amp;E64&amp;" "&amp;B64&amp;";"</f>
@@ -3382,16 +3389,16 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G65" s="0" t="str">
         <f aca="false">"private "&amp;E65&amp;" "&amp;B65&amp;";"</f>
@@ -3400,19 +3407,19 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G66" s="0" t="str">
         <f aca="false">"private "&amp;E66&amp;" "&amp;B66&amp;";"</f>
@@ -3421,16 +3428,16 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G67" s="0" t="str">
         <f aca="false">"private "&amp;E67&amp;" "&amp;B67&amp;";"</f>
@@ -3439,16 +3446,16 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B68" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>231</v>
-      </c>
-      <c r="D68" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E68" s="0" t="s">
-        <v>232</v>
       </c>
       <c r="G68" s="0" t="str">
         <f aca="false">"private "&amp;E68&amp;" "&amp;B68&amp;";"</f>
@@ -3457,16 +3464,16 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B69" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>234</v>
       </c>
       <c r="G69" s="0" t="str">
         <f aca="false">"private "&amp;E69&amp;" "&amp;B69&amp;";"</f>
@@ -3475,19 +3482,19 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B70" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="D70" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="9" t="s">
+      <c r="F70" s="0" t="s">
         <v>237</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>238</v>
       </c>
       <c r="G70" s="0" t="str">
         <f aca="false">"private "&amp;E70&amp;" "&amp;B70&amp;";"</f>
@@ -3496,16 +3503,16 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B71" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="G71" s="0" t="str">
         <f aca="false">"private "&amp;E71&amp;" "&amp;B71&amp;";"</f>
@@ -3514,16 +3521,16 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G72" s="0" t="str">
         <f aca="false">"private "&amp;E72&amp;" "&amp;B72&amp;";"</f>
@@ -3532,16 +3539,16 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G73" s="0" t="str">
         <f aca="false">"private "&amp;E73&amp;" "&amp;B73&amp;";"</f>
@@ -3550,16 +3557,16 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G74" s="0" t="str">
         <f aca="false">"private "&amp;E74&amp;" "&amp;B74&amp;";"</f>
@@ -3568,19 +3575,19 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G75" s="0" t="str">
         <f aca="false">"private "&amp;E75&amp;" "&amp;B75&amp;";"</f>
@@ -3589,16 +3596,16 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G76" s="0" t="str">
         <f aca="false">"private "&amp;E76&amp;" "&amp;B76&amp;";"</f>
@@ -3607,16 +3614,16 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B77" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="D77" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>247</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>248</v>
       </c>
       <c r="G77" s="0" t="str">
         <f aca="false">"private "&amp;E77&amp;" "&amp;B77&amp;";"</f>
@@ -3625,16 +3632,16 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B78" s="0" t="s">
-        <v>250</v>
-      </c>
       <c r="D78" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G78" s="0" t="str">
         <f aca="false">"private "&amp;E78&amp;" "&amp;B78&amp;";"</f>
@@ -3643,16 +3650,16 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G79" s="0" t="str">
         <f aca="false">"private "&amp;E79&amp;" "&amp;B79&amp;";"</f>
@@ -3661,19 +3668,19 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B80" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="D80" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="F80" s="0" t="s">
         <v>252</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>253</v>
       </c>
       <c r="G80" s="0" t="str">
         <f aca="false">"private "&amp;E80&amp;" "&amp;B80&amp;";"</f>
@@ -3682,19 +3689,19 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G81" s="0" t="str">
         <f aca="false">"private "&amp;E81&amp;" "&amp;B81&amp;";"</f>
@@ -3703,16 +3710,16 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D82" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G82" s="0" t="str">
         <f aca="false">"private "&amp;E82&amp;" "&amp;B82&amp;";"</f>
@@ -3721,13 +3728,13 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G83" s="0" t="str">
         <f aca="false">"private "&amp;E83&amp;" "&amp;B83&amp;";"</f>
@@ -3736,12 +3743,12 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>36</v>
@@ -3750,7 +3757,7 @@
         <v>5</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G85" s="0" t="str">
         <f aca="false">"private "&amp;E85&amp;" "&amp;B85&amp;";"</f>
@@ -3759,7 +3766,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>102</v>
@@ -3768,7 +3775,7 @@
         <v>5</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G86" s="0" t="str">
         <f aca="false">"private "&amp;E86&amp;" "&amp;B86&amp;";"</f>
@@ -3777,16 +3784,16 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B87" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>261</v>
-      </c>
       <c r="D87" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G87" s="0" t="str">
         <f aca="false">"private "&amp;E87&amp;" "&amp;B87&amp;";"</f>
@@ -3795,7 +3802,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>74</v>
@@ -3804,7 +3811,7 @@
         <v>5</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G88" s="0" t="str">
         <f aca="false">"private "&amp;E88&amp;" "&amp;B88&amp;";"</f>
@@ -3813,7 +3820,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>77</v>
@@ -3822,7 +3829,7 @@
         <v>5</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G89" s="0" t="str">
         <f aca="false">"private "&amp;E89&amp;" "&amp;B89&amp;";"</f>
@@ -3831,7 +3838,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>30</v>
@@ -3840,7 +3847,7 @@
         <v>5</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G90" s="0" t="str">
         <f aca="false">"private "&amp;E90&amp;" "&amp;B90&amp;";"</f>
@@ -3849,16 +3856,16 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B91" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B91" s="0" t="s">
-        <v>266</v>
-      </c>
       <c r="D91" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G91" s="0" t="str">
         <f aca="false">"private "&amp;E91&amp;" "&amp;B91&amp;";"</f>
@@ -3867,7 +3874,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>88</v>
@@ -3876,7 +3883,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G92" s="0" t="str">
         <f aca="false">"private "&amp;E92&amp;" "&amp;B92&amp;";"</f>
@@ -3885,16 +3892,16 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>269</v>
-      </c>
       <c r="D93" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G93" s="0" t="str">
         <f aca="false">"private "&amp;E93&amp;" "&amp;B93&amp;";"</f>
@@ -3903,16 +3910,16 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D94" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G94" s="0" t="str">
         <f aca="false">"private "&amp;E94&amp;" "&amp;B94&amp;";"</f>
@@ -3921,13 +3928,13 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E95" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G95" s="0" t="str">
         <f aca="false">"private "&amp;E95&amp;" "&amp;B95&amp;";"</f>
@@ -3936,223 +3943,253 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G96" s="0" t="str">
         <f aca="false">"private "&amp;E96&amp;" "&amp;B96&amp;";"</f>
         <v>private String medicationsPharmacistScreeningAuthorTelephone;</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G97" s="0" t="str">
         <f aca="false">"private "&amp;E97&amp;" "&amp;B97&amp;";"</f>
         <v>private DateValue medicationsPharmacistScreeningDate;</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>272</v>
-      </c>
-      <c r="D98" s="0" t="s">
-        <v>5</v>
+        <v>269</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>270</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G98" s="0" t="str">
         <f aca="false">"private "&amp;E98&amp;" "&amp;B98&amp;";"</f>
-        <v>private String research;</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>private String medicationsPharmacistScreeningAuthorOrgName;</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>273</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>274</v>
-      </c>
-      <c r="D99" s="0" t="s">
-        <v>5</v>
+        <v>269</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G99" s="0" t="str">
         <f aca="false">"private "&amp;E99&amp;" "&amp;B99&amp;";"</f>
-        <v>private String concerns;</v>
+        <v>private String medicationsPharmacistScreeningAuthorODSCode;</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G100" s="0" t="str">
         <f aca="false">"private "&amp;E100&amp;" "&amp;B100&amp;";"</f>
-        <v>private String personCompletingRecord;</v>
+        <v>private String research;</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="D101" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G101" s="0" t="str">
         <f aca="false">"private "&amp;E101&amp;" "&amp;B101&amp;";"</f>
-        <v>private String plan;</v>
+        <v>private String concerns;</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>81</v>
+        <v>277</v>
       </c>
       <c r="D102" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G102" s="0" t="str">
         <f aca="false">"private "&amp;E102&amp;" "&amp;B102&amp;";"</f>
-        <v>private String procedures;</v>
+        <v>private String personCompletingRecord;</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="D103" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G103" s="0" t="str">
         <f aca="false">"private "&amp;E103&amp;" "&amp;B103&amp;";"</f>
-        <v>private String alerts;</v>
+        <v>private String plan;</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="D104" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G104" s="0" t="str">
         <f aca="false">"private "&amp;E104&amp;" "&amp;B104&amp;";"</f>
-        <v>private String socialContext;</v>
+        <v>private String procedures;</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E105" s="9"/>
+      <c r="A105" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G105" s="0" t="str">
+        <f aca="false">"private "&amp;E105&amp;" "&amp;B105&amp;";"</f>
+        <v>private String alerts;</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D106" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E106" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G106" s="0" t="str">
         <f aca="false">"private "&amp;E106&amp;" "&amp;B106&amp;";"</f>
-        <v>private String body;</v>
+        <v>private String socialContext;</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B107" s="0" t="s">
-        <v>286</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F107" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="G107" s="0" t="str">
-        <f aca="false">"private "&amp;E107&amp;" "&amp;B107&amp;";"</f>
-        <v>private String mimeType;</v>
-      </c>
+      <c r="E107" s="9"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D108" s="0" t="s">
         <v>5</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="F108" s="0" t="s">
-        <v>290</v>
+        <v>144</v>
       </c>
       <c r="G108" s="0" t="str">
         <f aca="false">"private "&amp;E108&amp;" "&amp;B108&amp;";"</f>
+        <v>private String body;</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="G109" s="0" t="str">
+        <f aca="false">"private "&amp;E109&amp;" "&amp;B109&amp;";"</f>
+        <v>private String mimeType;</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F110" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="G110" s="0" t="str">
+        <f aca="false">"private "&amp;E110&amp;" "&amp;B110&amp;";"</f>
         <v>private AttachmentType encoding;</v>
       </c>
     </row>
@@ -4190,23 +4227,23 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4214,10 +4251,10 @@
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,32 +4262,32 @@
         <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>298</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>42</v>
@@ -4269,10 +4306,10 @@
         <v>49</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,10 +4317,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4294,7 +4331,7 @@
         <v>24</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,18 +4342,18 @@
         <v>32</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>308</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,10 +4369,10 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>42</v>
@@ -4343,10 +4380,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>42</v>
@@ -4360,7 +4397,7 @@
         <v>59</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,142 +4405,142 @@
         <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>325</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="C26" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>338</v>
-      </c>
       <c r="C30" s="11" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,10 +4548,10 @@
         <v>87</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,10 +4559,10 @@
         <v>90</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,26 +4570,26 @@
         <v>79</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="B36" s="0" t="s">
         <v>346</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,10 +4597,10 @@
         <v>95</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4571,65 +4608,65 @@
         <v>96</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/docs/TOCHelper-KingsFieldMappings.xlsx
+++ b/docs/TOCHelper-KingsFieldMappings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Mapping from Word Doc" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,15 +17,17 @@
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Helper Fields'!$A$3:$E$58</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">'Helper Fields'!$A$3:$E$47</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0" vbProcedure="false">'Helper Fields'!$A$3:$E$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area_0_0" vbProcedure="false">'Helper Fields'!$A$3:$E$47</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'Helper Fields'!$A$3:$E$58</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Helper Fields'!$A$3:$E$58</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Helper Fields'!$A$3:$E$58</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="359">
   <si>
     <t>KEY</t>
   </si>
@@ -1112,7 +1114,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YYYY\ HH:MM"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1164,6 +1166,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC5000B"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1207,7 +1216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1249,10 +1258,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1265,6 +1278,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FFC5000B"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1279,8 +1352,8 @@
   </sheetPr>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C72" activeCellId="0" sqref="C72"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A75" activeCellId="0" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2130,7 +2203,7 @@
   </sheetPr>
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B99" activeCellId="0" sqref="B99"/>
     </sheetView>
   </sheetViews>
@@ -4211,10 +4284,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A53" activeCellId="0" sqref="A53"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4576,20 +4649,26 @@
         <v>330</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="12" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="12" t="s">
         <v>346</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4667,6 +4746,28 @@
       </c>
       <c r="C43" s="1" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
